--- a/Streams_dilution_gauging.xlsx
+++ b/Streams_dilution_gauging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7DD497-8A6E-415C-9144-2ED6320E60AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD5E3A-17CC-4E50-A378-CC7E0272B7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="0" windowWidth="7140" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DG_details" sheetId="3" r:id="rId1"/>
@@ -1148,8 +1148,8 @@
   <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD77"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
